--- a/Code/Results/Cases/Case_0_166/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_166/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9625192618152557</v>
+        <v>1.01385889889611</v>
       </c>
       <c r="D2">
-        <v>0.9733213642008619</v>
+        <v>1.016135689362683</v>
       </c>
       <c r="E2">
-        <v>0.9738786912674159</v>
+        <v>1.015692096259334</v>
       </c>
       <c r="F2">
-        <v>0.9774638973145043</v>
+        <v>1.025281038456786</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043619124294337</v>
+        <v>1.025701409304815</v>
       </c>
       <c r="J2">
-        <v>0.9858818775267578</v>
+        <v>1.019093454337336</v>
       </c>
       <c r="K2">
-        <v>0.9851653270199351</v>
+        <v>1.018988763173778</v>
       </c>
       <c r="L2">
-        <v>0.9857143450428287</v>
+        <v>1.018546495265856</v>
       </c>
       <c r="M2">
-        <v>0.9892463879677938</v>
+        <v>1.028107069382837</v>
       </c>
       <c r="N2">
-        <v>0.9872819428750775</v>
+        <v>1.020540683934148</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9686031586546389</v>
+        <v>1.015116750629211</v>
       </c>
       <c r="D3">
-        <v>0.9784026188589834</v>
+        <v>1.017239546257658</v>
       </c>
       <c r="E3">
-        <v>0.9788278022733459</v>
+        <v>1.016768840607863</v>
       </c>
       <c r="F3">
-        <v>0.9840510251719183</v>
+        <v>1.026649954282592</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044067575456638</v>
+        <v>1.025687028427521</v>
       </c>
       <c r="J3">
-        <v>0.9899879320126681</v>
+        <v>1.019983996413019</v>
       </c>
       <c r="K3">
-        <v>0.9893195099051518</v>
+        <v>1.019897107584716</v>
       </c>
       <c r="L3">
-        <v>0.9897389500268747</v>
+        <v>1.019427705287252</v>
       </c>
       <c r="M3">
-        <v>0.9948921271815078</v>
+        <v>1.029281730353043</v>
       </c>
       <c r="N3">
-        <v>0.991393828429329</v>
+        <v>1.021432490681726</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9724397973695014</v>
+        <v>1.015930543923489</v>
       </c>
       <c r="D4">
-        <v>0.9816136512121227</v>
+        <v>1.017953988048463</v>
       </c>
       <c r="E4">
-        <v>0.9819560327965372</v>
+        <v>1.017465767397186</v>
       </c>
       <c r="F4">
-        <v>0.9881967166005676</v>
+        <v>1.027533958980057</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044331250702195</v>
+        <v>1.025675215049564</v>
       </c>
       <c r="J4">
-        <v>0.9925757719511594</v>
+        <v>1.020559692438234</v>
       </c>
       <c r="K4">
-        <v>0.9919391682490013</v>
+        <v>1.020484462555606</v>
       </c>
       <c r="L4">
-        <v>0.9922772240886703</v>
+        <v>1.019997524941466</v>
       </c>
       <c r="M4">
-        <v>0.9984397157354987</v>
+        <v>1.030039523664973</v>
       </c>
       <c r="N4">
-        <v>0.9939853433973624</v>
+        <v>1.022009004261329</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9740299464333876</v>
+        <v>1.016272636612942</v>
       </c>
       <c r="D5">
-        <v>0.9829460341657853</v>
+        <v>1.018254382472046</v>
       </c>
       <c r="E5">
-        <v>0.9832542181289661</v>
+        <v>1.017758805223073</v>
       </c>
       <c r="F5">
-        <v>0.9899128895150821</v>
+        <v>1.027905172278182</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044435843025153</v>
+        <v>1.025669647510118</v>
       </c>
       <c r="J5">
-        <v>0.9936479165662985</v>
+        <v>1.020801586448179</v>
       </c>
       <c r="K5">
-        <v>0.9930248467411507</v>
+        <v>1.020731291359345</v>
       </c>
       <c r="L5">
-        <v>0.9933292478953168</v>
+        <v>1.020236987164904</v>
       </c>
       <c r="M5">
-        <v>0.999906901549256</v>
+        <v>1.030357553620779</v>
       </c>
       <c r="N5">
-        <v>0.995059010580832</v>
+        <v>1.022251241788514</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.974295636703536</v>
+        <v>1.016330074040484</v>
       </c>
       <c r="D6">
-        <v>0.98316874305458</v>
+        <v>1.018304822596316</v>
       </c>
       <c r="E6">
-        <v>0.9834712200198299</v>
+        <v>1.017808010531424</v>
       </c>
       <c r="F6">
-        <v>0.9901995127206048</v>
+        <v>1.027967475941239</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044453040059311</v>
+        <v>1.02566867741845</v>
       </c>
       <c r="J6">
-        <v>0.9938270296061764</v>
+        <v>1.02084219402484</v>
       </c>
       <c r="K6">
-        <v>0.993206241290706</v>
+        <v>1.020772729464924</v>
       </c>
       <c r="L6">
-        <v>0.9935050236402053</v>
+        <v>1.020277188694974</v>
       </c>
       <c r="M6">
-        <v>1.00015185751406</v>
+        <v>1.030410920271507</v>
       </c>
       <c r="N6">
-        <v>0.9952383779817706</v>
+        <v>1.022291907032591</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9724611330077679</v>
+        <v>1.015935115081327</v>
       </c>
       <c r="D7">
-        <v>0.9816315223719695</v>
+        <v>1.017958001761928</v>
       </c>
       <c r="E7">
-        <v>0.9819734446447008</v>
+        <v>1.01746968278525</v>
       </c>
       <c r="F7">
-        <v>0.9882197514249959</v>
+        <v>1.027538920806318</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044332672742786</v>
+        <v>1.025675143019131</v>
       </c>
       <c r="J7">
-        <v>0.9925901590663359</v>
+        <v>1.020562925141062</v>
       </c>
       <c r="K7">
-        <v>0.9919537355914152</v>
+        <v>1.020487761066327</v>
       </c>
       <c r="L7">
-        <v>0.9922913395759971</v>
+        <v>1.020000724999018</v>
       </c>
       <c r="M7">
-        <v>0.9984594141717292</v>
+        <v>1.030043775341176</v>
       </c>
       <c r="N7">
-        <v>0.9939997509438925</v>
+        <v>1.022012241554966</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.964596795554124</v>
+        <v>1.014284022573849</v>
       </c>
       <c r="D8">
-        <v>0.9750550595361286</v>
+        <v>1.016508708312211</v>
       </c>
       <c r="E8">
-        <v>0.9755671461950818</v>
+        <v>1.01605594638177</v>
       </c>
       <c r="F8">
-        <v>0.9797149728489652</v>
+        <v>1.025744039238568</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043776223422892</v>
+        <v>1.025697068052583</v>
       </c>
       <c r="J8">
-        <v>0.9872843027087038</v>
+        <v>1.019394530913413</v>
       </c>
       <c r="K8">
-        <v>0.9865838745711507</v>
+        <v>1.019295827183099</v>
       </c>
       <c r="L8">
-        <v>0.9870885727481604</v>
+        <v>1.018844384368643</v>
       </c>
       <c r="M8">
-        <v>0.9911769139960251</v>
+        <v>1.02850452716622</v>
       </c>
       <c r="N8">
-        <v>0.9886863596616425</v>
+        <v>1.020842188073498</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9499148811163449</v>
+        <v>1.011373529327463</v>
       </c>
       <c r="D9">
-        <v>0.9628352128753997</v>
+        <v>1.013956109407429</v>
       </c>
       <c r="E9">
-        <v>0.9636695875680058</v>
+        <v>1.013566229274661</v>
       </c>
       <c r="F9">
-        <v>0.9637743174547903</v>
+        <v>1.022567506344935</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042588332098991</v>
+        <v>1.025716528129859</v>
       </c>
       <c r="J9">
-        <v>0.9773692882606546</v>
+        <v>1.017331426342908</v>
       </c>
       <c r="K9">
-        <v>0.9765614867006196</v>
+        <v>1.017192314837466</v>
       </c>
       <c r="L9">
-        <v>0.9773809498744833</v>
+        <v>1.016803768605725</v>
       </c>
       <c r="M9">
-        <v>0.9774838104497627</v>
+        <v>1.025774534417281</v>
       </c>
       <c r="N9">
-        <v>0.9787572647558087</v>
+        <v>1.01877615365786</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9394839582410432</v>
+        <v>1.00943230392377</v>
       </c>
       <c r="D10">
-        <v>0.9541989021863696</v>
+        <v>1.012255096638489</v>
       </c>
       <c r="E10">
-        <v>0.9552659055419186</v>
+        <v>1.011907298510126</v>
       </c>
       <c r="F10">
-        <v>0.9524114949408575</v>
+        <v>1.020440412105491</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041650145983714</v>
+        <v>1.02571665357834</v>
       </c>
       <c r="J10">
-        <v>0.9703228230592401</v>
+        <v>1.01595306051072</v>
       </c>
       <c r="K10">
-        <v>0.9694474629461979</v>
+        <v>1.015787734903381</v>
       </c>
       <c r="L10">
-        <v>0.970492716991187</v>
+        <v>1.015441245273222</v>
       </c>
       <c r="M10">
-        <v>0.9676966334461751</v>
+        <v>1.023942540210484</v>
       </c>
       <c r="N10">
-        <v>0.9717007927655678</v>
+        <v>1.01739583038809</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9347920569333562</v>
+        <v>1.008591477314588</v>
       </c>
       <c r="D11">
-        <v>0.9503265510354473</v>
+        <v>1.011518683774729</v>
       </c>
       <c r="E11">
-        <v>0.951499191029691</v>
+        <v>1.01118914776302</v>
       </c>
       <c r="F11">
-        <v>0.947292712000811</v>
+        <v>1.019517084480588</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041207445193296</v>
+        <v>1.025713669424727</v>
       </c>
       <c r="J11">
-        <v>0.9671537916202272</v>
+        <v>1.015355485260069</v>
       </c>
       <c r="K11">
-        <v>0.966250239458175</v>
+        <v>1.015178981266717</v>
       </c>
       <c r="L11">
-        <v>0.9673976314343302</v>
+        <v>1.014850733889139</v>
       </c>
       <c r="M11">
-        <v>0.9632821069851221</v>
+        <v>1.023146388155564</v>
       </c>
       <c r="N11">
-        <v>0.9685272609384186</v>
+        <v>1.01679740651204</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9330207628142284</v>
+        <v>1.008279113638703</v>
       </c>
       <c r="D12">
-        <v>0.9488666504972441</v>
+        <v>1.01124516546235</v>
       </c>
       <c r="E12">
-        <v>0.9500793329054179</v>
+        <v>1.010922419046019</v>
       </c>
       <c r="F12">
-        <v>0.9453592112937418</v>
+        <v>1.01917377293353</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041037357566182</v>
+        <v>1.025712105138288</v>
       </c>
       <c r="J12">
-        <v>0.9659575894438209</v>
+        <v>1.015133406739065</v>
       </c>
       <c r="K12">
-        <v>0.9650437359491334</v>
+        <v>1.014952776578803</v>
       </c>
       <c r="L12">
-        <v>0.9662297795304371</v>
+        <v>1.014631310044163</v>
       </c>
       <c r="M12">
-        <v>0.9616138563188763</v>
+        <v>1.022850225206983</v>
       </c>
       <c r="N12">
-        <v>0.9673293600177154</v>
+        <v>1.016575012614063</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9334020394161602</v>
+        <v>1.008346118723462</v>
       </c>
       <c r="D13">
-        <v>0.9491808060946673</v>
+        <v>1.01130383528252</v>
       </c>
       <c r="E13">
-        <v>0.9503848617118552</v>
+        <v>1.010979632190136</v>
       </c>
       <c r="F13">
-        <v>0.9457754489725507</v>
+        <v>1.019247430168653</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04107410051797</v>
+        <v>1.025712461300313</v>
       </c>
       <c r="J13">
-        <v>0.96621506611383</v>
+        <v>1.015181048460908</v>
       </c>
       <c r="K13">
-        <v>0.9653034143804743</v>
+        <v>1.015001302200554</v>
       </c>
       <c r="L13">
-        <v>0.9664811338147662</v>
+        <v>1.014678380930146</v>
       </c>
       <c r="M13">
-        <v>0.9619730253099671</v>
+        <v>1.022913772971066</v>
       </c>
       <c r="N13">
-        <v>0.9675872023341289</v>
+        <v>1.016622721992616</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9346462363578447</v>
+        <v>1.008565658139098</v>
       </c>
       <c r="D14">
-        <v>0.9502063243432263</v>
+        <v>1.011496074307798</v>
       </c>
       <c r="E14">
-        <v>0.9513822574335039</v>
+        <v>1.011167099398026</v>
       </c>
       <c r="F14">
-        <v>0.947133558540727</v>
+        <v>1.01948871333245</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041193501988794</v>
+        <v>1.025713549415551</v>
       </c>
       <c r="J14">
-        <v>0.967055310937026</v>
+        <v>1.01533713048745</v>
       </c>
       <c r="K14">
-        <v>0.9661509037164551</v>
+        <v>1.015160284893406</v>
       </c>
       <c r="L14">
-        <v>0.9673014757502091</v>
+        <v>1.014832597922559</v>
       </c>
       <c r="M14">
-        <v>0.9631448023661763</v>
+        <v>1.023121916158196</v>
       </c>
       <c r="N14">
-        <v>0.968428640401351</v>
+        <v>1.016779025673539</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.935408979462895</v>
+        <v>1.008700917778965</v>
       </c>
       <c r="D15">
-        <v>0.9508352757102406</v>
+        <v>1.011614521458901</v>
       </c>
       <c r="E15">
-        <v>0.9519939902949188</v>
+        <v>1.011282607305943</v>
       </c>
       <c r="F15">
-        <v>0.9479659998665688</v>
+        <v>1.019637329818308</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041266315208144</v>
+        <v>1.025714159455582</v>
       </c>
       <c r="J15">
-        <v>0.9675704412056313</v>
+        <v>1.015433282805669</v>
       </c>
       <c r="K15">
-        <v>0.9666705205143028</v>
+        <v>1.015258227852966</v>
       </c>
       <c r="L15">
-        <v>0.9678044624258648</v>
+        <v>1.014927605224451</v>
       </c>
       <c r="M15">
-        <v>0.9638629340554123</v>
+        <v>1.023250102098721</v>
       </c>
       <c r="N15">
-        <v>0.9689445022140242</v>
+        <v>1.016875314539079</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9397914709970498</v>
+        <v>1.009488100956452</v>
       </c>
       <c r="D16">
-        <v>0.9544529681512586</v>
+        <v>1.012303972618587</v>
       </c>
       <c r="E16">
-        <v>0.9555130696827578</v>
+        <v>1.011954963358158</v>
       </c>
       <c r="F16">
-        <v>0.952746835144376</v>
+        <v>1.020501641925814</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041678744223574</v>
+        <v>1.025716787666102</v>
       </c>
       <c r="J16">
-        <v>0.9705305439104172</v>
+        <v>1.015992703962863</v>
       </c>
       <c r="K16">
-        <v>0.9696570780701885</v>
+        <v>1.015828123868239</v>
       </c>
       <c r="L16">
-        <v>0.9706956502969287</v>
+        <v>1.015480424233957</v>
       </c>
       <c r="M16">
-        <v>0.9679857270974277</v>
+        <v>1.023995317133214</v>
       </c>
       <c r="N16">
-        <v>0.9719088086041792</v>
+        <v>1.017435530138483</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9424921052804771</v>
+        <v>1.009981807097589</v>
       </c>
       <c r="D17">
-        <v>0.9566856337210146</v>
+        <v>1.012736482108398</v>
       </c>
       <c r="E17">
-        <v>0.9576852365718372</v>
+        <v>1.012376760458358</v>
       </c>
       <c r="F17">
-        <v>0.9556909955571906</v>
+        <v>1.021043188546163</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041927573631894</v>
+        <v>1.02571762325623</v>
       </c>
       <c r="J17">
-        <v>0.9723548566542607</v>
+        <v>1.016343416059765</v>
       </c>
       <c r="K17">
-        <v>0.9714982766047524</v>
+        <v>1.016185452796266</v>
       </c>
       <c r="L17">
-        <v>0.972478233676062</v>
+        <v>1.015827049723991</v>
       </c>
       <c r="M17">
-        <v>0.9705232402212595</v>
+        <v>1.024461995961223</v>
       </c>
       <c r="N17">
-        <v>0.9737357120813708</v>
+        <v>1.01778674028679</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9440505907902713</v>
+        <v>1.010269752393111</v>
       </c>
       <c r="D18">
-        <v>0.9579752151013813</v>
+        <v>1.012988770944871</v>
       </c>
       <c r="E18">
-        <v>0.9589399986185539</v>
+        <v>1.012622804818871</v>
       </c>
       <c r="F18">
-        <v>0.9573892814108618</v>
+        <v>1.021358843625142</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042069206278736</v>
+        <v>1.02571781743024</v>
       </c>
       <c r="J18">
-        <v>0.9734076754010088</v>
+        <v>1.016547909848174</v>
       </c>
       <c r="K18">
-        <v>0.9725610461105455</v>
+        <v>1.016393822708802</v>
       </c>
       <c r="L18">
-        <v>0.9735072313490191</v>
+        <v>1.016029179529442</v>
       </c>
       <c r="M18">
-        <v>0.9719864315251722</v>
+        <v>1.024733923526996</v>
       </c>
       <c r="N18">
-        <v>0.9747900259514991</v>
+        <v>1.017991524479833</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9445792157210167</v>
+        <v>1.010367930143972</v>
       </c>
       <c r="D19">
-        <v>0.9584128213636047</v>
+        <v>1.013074797256448</v>
       </c>
       <c r="E19">
-        <v>0.9593658099450967</v>
+        <v>1.012706702578356</v>
       </c>
       <c r="F19">
-        <v>0.9579651977710586</v>
+        <v>1.02146643666258</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042116909679359</v>
+        <v>1.025717833884442</v>
       </c>
       <c r="J19">
-        <v>0.9737647868523293</v>
+        <v>1.016617625029817</v>
       </c>
       <c r="K19">
-        <v>0.9729215674341257</v>
+        <v>1.016464862368713</v>
       </c>
       <c r="L19">
-        <v>0.9738563065303711</v>
+        <v>1.016098091983625</v>
       </c>
       <c r="M19">
-        <v>0.972482532126112</v>
+        <v>1.024826596683905</v>
       </c>
       <c r="N19">
-        <v>0.9751476445420418</v>
+        <v>1.018061338665031</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9422041002167999</v>
+        <v>1.009928839729809</v>
       </c>
       <c r="D20">
-        <v>0.9564474138574162</v>
+        <v>1.012690076568687</v>
       </c>
       <c r="E20">
-        <v>0.9574534587225897</v>
+        <v>1.012331503854091</v>
       </c>
       <c r="F20">
-        <v>0.9553770955012371</v>
+        <v>1.020985108493243</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041901240342126</v>
+        <v>1.025717563928957</v>
       </c>
       <c r="J20">
-        <v>0.9721603005477378</v>
+        <v>1.016305795295009</v>
       </c>
       <c r="K20">
-        <v>0.9713018982335877</v>
+        <v>1.016147120386655</v>
       </c>
       <c r="L20">
-        <v>0.9722881005941877</v>
+        <v>1.015789865377881</v>
       </c>
       <c r="M20">
-        <v>0.9702527503497897</v>
+        <v>1.024411954548323</v>
       </c>
       <c r="N20">
-        <v>0.9735408796828606</v>
+        <v>1.017749066096232</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9342806572263209</v>
+        <v>1.008501010476306</v>
       </c>
       <c r="D21">
-        <v>0.9499049429220618</v>
+        <v>1.011439464222446</v>
       </c>
       <c r="E21">
-        <v>0.9510891346160699</v>
+        <v>1.011111894320532</v>
       </c>
       <c r="F21">
-        <v>0.9467345367209469</v>
+        <v>1.019417671051431</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041158498637225</v>
+        <v>1.025713241570915</v>
       </c>
       <c r="J21">
-        <v>0.9668084183457036</v>
+        <v>1.015291171343441</v>
       </c>
       <c r="K21">
-        <v>0.9659018729940739</v>
+        <v>1.015113470857648</v>
       </c>
       <c r="L21">
-        <v>0.9670604190901696</v>
+        <v>1.01478718713164</v>
       </c>
       <c r="M21">
-        <v>0.9628005468062759</v>
+        <v>1.023060635254451</v>
       </c>
       <c r="N21">
-        <v>0.9681813971942299</v>
+        <v>1.016733001262273</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9291326410489471</v>
+        <v>1.007603025568567</v>
       </c>
       <c r="D22">
-        <v>0.9456659096424141</v>
+        <v>1.010653258809998</v>
       </c>
       <c r="E22">
-        <v>0.9469668017177086</v>
+        <v>1.010345217750034</v>
       </c>
       <c r="F22">
-        <v>0.9411132237075109</v>
+        <v>1.018430153972539</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040658725849572</v>
+        <v>1.025707886903917</v>
       </c>
       <c r="J22">
-        <v>0.9633322766057542</v>
+        <v>1.014652585189599</v>
       </c>
       <c r="K22">
-        <v>0.9623964548060263</v>
+        <v>1.014463072933887</v>
       </c>
       <c r="L22">
-        <v>0.9636675185968394</v>
+        <v>1.014156290255036</v>
       </c>
       <c r="M22">
-        <v>0.9579490267812676</v>
+        <v>1.022208479498067</v>
       </c>
       <c r="N22">
-        <v>0.9647003189342906</v>
+        <v>1.016093508242847</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9318782534393185</v>
+        <v>1.008079089481204</v>
       </c>
       <c r="D23">
-        <v>0.9479255760443877</v>
+        <v>1.011070032086333</v>
       </c>
       <c r="E23">
-        <v>0.9491641337422826</v>
+        <v>1.010751634933945</v>
       </c>
       <c r="F23">
-        <v>0.9441117945060037</v>
+        <v>1.018953846956906</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040926834438579</v>
+        <v>1.025710975258589</v>
       </c>
       <c r="J23">
-        <v>0.965186084876845</v>
+        <v>1.014991174323436</v>
       </c>
       <c r="K23">
-        <v>0.9642656847910467</v>
+        <v>1.014807909434654</v>
       </c>
       <c r="L23">
-        <v>0.9654766859976316</v>
+        <v>1.014490786167564</v>
       </c>
       <c r="M23">
-        <v>0.9605373609836051</v>
+        <v>1.022660463983661</v>
       </c>
       <c r="N23">
-        <v>0.9665567598257613</v>
+        <v>1.01643257821209</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9423342889050044</v>
+        <v>1.009952773480905</v>
       </c>
       <c r="D24">
-        <v>0.9565550942726559</v>
+        <v>1.012711045193251</v>
       </c>
       <c r="E24">
-        <v>0.9575582268259497</v>
+        <v>1.012351953312211</v>
       </c>
       <c r="F24">
-        <v>0.9555189919476903</v>
+        <v>1.021011353048413</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041913150042143</v>
+        <v>1.025717591642484</v>
       </c>
       <c r="J24">
-        <v>0.9722482468099121</v>
+        <v>1.016322794717463</v>
       </c>
       <c r="K24">
-        <v>0.9713906675857045</v>
+        <v>1.016164441319388</v>
       </c>
       <c r="L24">
-        <v>0.9723740466832284</v>
+        <v>1.015806667540792</v>
       </c>
       <c r="M24">
-        <v>0.9703750251515741</v>
+        <v>1.024434566968578</v>
       </c>
       <c r="N24">
-        <v>0.9736289508388148</v>
+        <v>1.017766089659816</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9538167885123527</v>
+        <v>1.012126105971104</v>
       </c>
       <c r="D25">
-        <v>0.9660754965907395</v>
+        <v>1.014615882081278</v>
       </c>
       <c r="E25">
-        <v>0.9668236336672902</v>
+        <v>1.014209717816454</v>
       </c>
       <c r="F25">
-        <v>0.9680175678035047</v>
+        <v>1.023390360755825</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042920664065068</v>
+        <v>1.025713764933832</v>
       </c>
       <c r="J25">
-        <v>0.9800050325090305</v>
+        <v>1.017865302515839</v>
       </c>
       <c r="K25">
-        <v>0.9792243122450021</v>
+        <v>1.017736509969724</v>
       </c>
       <c r="L25">
-        <v>0.9799597715979923</v>
+        <v>1.017331681829682</v>
       </c>
       <c r="M25">
-        <v>0.981133526019982</v>
+        <v>1.026482407626778</v>
       </c>
       <c r="N25">
-        <v>0.9813967520633416</v>
+        <v>1.019310787996194</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_166/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_166/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.01385889889611</v>
+        <v>0.9625192618152565</v>
       </c>
       <c r="D2">
-        <v>1.016135689362683</v>
+        <v>0.9733213642008625</v>
       </c>
       <c r="E2">
-        <v>1.015692096259334</v>
+        <v>0.9738786912674166</v>
       </c>
       <c r="F2">
-        <v>1.025281038456786</v>
+        <v>0.9774638973145047</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.025701409304815</v>
+        <v>1.043619124294337</v>
       </c>
       <c r="J2">
-        <v>1.019093454337336</v>
+        <v>0.9858818775267586</v>
       </c>
       <c r="K2">
-        <v>1.018988763173778</v>
+        <v>0.9851653270199355</v>
       </c>
       <c r="L2">
-        <v>1.018546495265856</v>
+        <v>0.9857143450428295</v>
       </c>
       <c r="M2">
-        <v>1.028107069382837</v>
+        <v>0.9892463879677942</v>
       </c>
       <c r="N2">
-        <v>1.020540683934148</v>
+        <v>0.9872819428750784</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015116750629211</v>
+        <v>0.9686031586546395</v>
       </c>
       <c r="D3">
-        <v>1.017239546257658</v>
+        <v>0.9784026188589839</v>
       </c>
       <c r="E3">
-        <v>1.016768840607863</v>
+        <v>0.9788278022733465</v>
       </c>
       <c r="F3">
-        <v>1.026649954282592</v>
+        <v>0.9840510251719183</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.025687028427521</v>
+        <v>1.044067575456638</v>
       </c>
       <c r="J3">
-        <v>1.019983996413019</v>
+        <v>0.9899879320126688</v>
       </c>
       <c r="K3">
-        <v>1.019897107584716</v>
+        <v>0.9893195099051525</v>
       </c>
       <c r="L3">
-        <v>1.019427705287252</v>
+        <v>0.9897389500268753</v>
       </c>
       <c r="M3">
-        <v>1.029281730353043</v>
+        <v>0.9948921271815081</v>
       </c>
       <c r="N3">
-        <v>1.021432490681726</v>
+        <v>0.9913938284293297</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015930543923489</v>
+        <v>0.9724397973695018</v>
       </c>
       <c r="D4">
-        <v>1.017953988048463</v>
+        <v>0.9816136512121232</v>
       </c>
       <c r="E4">
-        <v>1.017465767397186</v>
+        <v>0.9819560327965375</v>
       </c>
       <c r="F4">
-        <v>1.027533958980057</v>
+        <v>0.9881967166005681</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.025675215049564</v>
+        <v>1.044331250702195</v>
       </c>
       <c r="J4">
-        <v>1.020559692438234</v>
+        <v>0.9925757719511598</v>
       </c>
       <c r="K4">
-        <v>1.020484462555606</v>
+        <v>0.9919391682490017</v>
       </c>
       <c r="L4">
-        <v>1.019997524941466</v>
+        <v>0.9922772240886706</v>
       </c>
       <c r="M4">
-        <v>1.030039523664973</v>
+        <v>0.9984397157354991</v>
       </c>
       <c r="N4">
-        <v>1.022009004261329</v>
+        <v>0.9939853433973628</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016272636612942</v>
+        <v>0.9740299464333875</v>
       </c>
       <c r="D5">
-        <v>1.018254382472046</v>
+        <v>0.9829460341657852</v>
       </c>
       <c r="E5">
-        <v>1.017758805223073</v>
+        <v>0.983254218128966</v>
       </c>
       <c r="F5">
-        <v>1.027905172278182</v>
+        <v>0.9899128895150821</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.025669647510118</v>
+        <v>1.044435843025153</v>
       </c>
       <c r="J5">
-        <v>1.020801586448179</v>
+        <v>0.9936479165662985</v>
       </c>
       <c r="K5">
-        <v>1.020731291359345</v>
+        <v>0.9930248467411505</v>
       </c>
       <c r="L5">
-        <v>1.020236987164904</v>
+        <v>0.9933292478953166</v>
       </c>
       <c r="M5">
-        <v>1.030357553620779</v>
+        <v>0.999906901549256</v>
       </c>
       <c r="N5">
-        <v>1.022251241788514</v>
+        <v>0.9950590105808318</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016330074040484</v>
+        <v>0.9742956367035351</v>
       </c>
       <c r="D6">
-        <v>1.018304822596316</v>
+        <v>0.9831687430545791</v>
       </c>
       <c r="E6">
-        <v>1.017808010531424</v>
+        <v>0.9834712200198289</v>
       </c>
       <c r="F6">
-        <v>1.027967475941239</v>
+        <v>0.9901995127206041</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.02566867741845</v>
+        <v>1.044453040059311</v>
       </c>
       <c r="J6">
-        <v>1.02084219402484</v>
+        <v>0.9938270296061756</v>
       </c>
       <c r="K6">
-        <v>1.020772729464924</v>
+        <v>0.9932062412907052</v>
       </c>
       <c r="L6">
-        <v>1.020277188694974</v>
+        <v>0.9935050236402044</v>
       </c>
       <c r="M6">
-        <v>1.030410920271507</v>
+        <v>1.000151857514059</v>
       </c>
       <c r="N6">
-        <v>1.022291907032591</v>
+        <v>0.99523837798177</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015935115081327</v>
+        <v>0.9724611330077693</v>
       </c>
       <c r="D7">
-        <v>1.017958001761928</v>
+        <v>0.9816315223719705</v>
       </c>
       <c r="E7">
-        <v>1.01746968278525</v>
+        <v>0.981973444644702</v>
       </c>
       <c r="F7">
-        <v>1.027538920806318</v>
+        <v>0.9882197514249964</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.025675143019131</v>
+        <v>1.044332672742786</v>
       </c>
       <c r="J7">
-        <v>1.020562925141062</v>
+        <v>0.992590159066337</v>
       </c>
       <c r="K7">
-        <v>1.020487761066327</v>
+        <v>0.9919537355914163</v>
       </c>
       <c r="L7">
-        <v>1.020000724999018</v>
+        <v>0.9922913395759982</v>
       </c>
       <c r="M7">
-        <v>1.030043775341176</v>
+        <v>0.9984594141717297</v>
       </c>
       <c r="N7">
-        <v>1.022012241554966</v>
+        <v>0.9939997509438936</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.014284022573849</v>
+        <v>0.9645967955541244</v>
       </c>
       <c r="D8">
-        <v>1.016508708312211</v>
+        <v>0.9750550595361289</v>
       </c>
       <c r="E8">
-        <v>1.01605594638177</v>
+        <v>0.975567146195082</v>
       </c>
       <c r="F8">
-        <v>1.025744039238568</v>
+        <v>0.9797149728489656</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.025697068052583</v>
+        <v>1.043776223422892</v>
       </c>
       <c r="J8">
-        <v>1.019394530913413</v>
+        <v>0.9872843027087042</v>
       </c>
       <c r="K8">
-        <v>1.019295827183099</v>
+        <v>0.986583874571151</v>
       </c>
       <c r="L8">
-        <v>1.018844384368643</v>
+        <v>0.9870885727481606</v>
       </c>
       <c r="M8">
-        <v>1.02850452716622</v>
+        <v>0.9911769139960254</v>
       </c>
       <c r="N8">
-        <v>1.020842188073498</v>
+        <v>0.9886863596616428</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.011373529327463</v>
+        <v>0.949914881116346</v>
       </c>
       <c r="D9">
-        <v>1.013956109407429</v>
+        <v>0.962835212875401</v>
       </c>
       <c r="E9">
-        <v>1.013566229274661</v>
+        <v>0.963669587568007</v>
       </c>
       <c r="F9">
-        <v>1.022567506344935</v>
+        <v>0.9637743174547916</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025716528129859</v>
+        <v>1.042588332098991</v>
       </c>
       <c r="J9">
-        <v>1.017331426342908</v>
+        <v>0.9773692882606558</v>
       </c>
       <c r="K9">
-        <v>1.017192314837466</v>
+        <v>0.9765614867006207</v>
       </c>
       <c r="L9">
-        <v>1.016803768605725</v>
+        <v>0.9773809498744847</v>
       </c>
       <c r="M9">
-        <v>1.025774534417281</v>
+        <v>0.977483810449764</v>
       </c>
       <c r="N9">
-        <v>1.01877615365786</v>
+        <v>0.97875726475581</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.00943230392377</v>
+        <v>0.939483958241044</v>
       </c>
       <c r="D10">
-        <v>1.012255096638489</v>
+        <v>0.9541989021863704</v>
       </c>
       <c r="E10">
-        <v>1.011907298510126</v>
+        <v>0.9552659055419195</v>
       </c>
       <c r="F10">
-        <v>1.020440412105491</v>
+        <v>0.952411494940858</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02571665357834</v>
+        <v>1.041650145983714</v>
       </c>
       <c r="J10">
-        <v>1.01595306051072</v>
+        <v>0.9703228230592411</v>
       </c>
       <c r="K10">
-        <v>1.015787734903381</v>
+        <v>0.9694474629461987</v>
       </c>
       <c r="L10">
-        <v>1.015441245273222</v>
+        <v>0.9704927169911877</v>
       </c>
       <c r="M10">
-        <v>1.023942540210484</v>
+        <v>0.9676966334461756</v>
       </c>
       <c r="N10">
-        <v>1.01739583038809</v>
+        <v>0.9717007927655688</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.008591477314588</v>
+        <v>0.9347920569333554</v>
       </c>
       <c r="D11">
-        <v>1.011518683774729</v>
+        <v>0.9503265510354469</v>
       </c>
       <c r="E11">
-        <v>1.01118914776302</v>
+        <v>0.9514991910296907</v>
       </c>
       <c r="F11">
-        <v>1.019517084480588</v>
+        <v>0.9472927120008101</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025713669424727</v>
+        <v>1.041207445193296</v>
       </c>
       <c r="J11">
-        <v>1.015355485260069</v>
+        <v>0.9671537916202269</v>
       </c>
       <c r="K11">
-        <v>1.015178981266717</v>
+        <v>0.9662502394581746</v>
       </c>
       <c r="L11">
-        <v>1.014850733889139</v>
+        <v>0.9673976314343299</v>
       </c>
       <c r="M11">
-        <v>1.023146388155564</v>
+        <v>0.9632821069851211</v>
       </c>
       <c r="N11">
-        <v>1.01679740651204</v>
+        <v>0.9685272609384181</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.008279113638703</v>
+        <v>0.9330207628142281</v>
       </c>
       <c r="D12">
-        <v>1.01124516546235</v>
+        <v>0.9488666504972441</v>
       </c>
       <c r="E12">
-        <v>1.010922419046019</v>
+        <v>0.9500793329054179</v>
       </c>
       <c r="F12">
-        <v>1.01917377293353</v>
+        <v>0.9453592112937415</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025712105138288</v>
+        <v>1.041037357566182</v>
       </c>
       <c r="J12">
-        <v>1.015133406739065</v>
+        <v>0.9659575894438208</v>
       </c>
       <c r="K12">
-        <v>1.014952776578803</v>
+        <v>0.9650437359491334</v>
       </c>
       <c r="L12">
-        <v>1.014631310044163</v>
+        <v>0.9662297795304369</v>
       </c>
       <c r="M12">
-        <v>1.022850225206983</v>
+        <v>0.9616138563188761</v>
       </c>
       <c r="N12">
-        <v>1.016575012614063</v>
+        <v>0.9673293600177153</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.008346118723462</v>
+        <v>0.9334020394161598</v>
       </c>
       <c r="D13">
-        <v>1.01130383528252</v>
+        <v>0.9491808060946666</v>
       </c>
       <c r="E13">
-        <v>1.010979632190136</v>
+        <v>0.9503848617118548</v>
       </c>
       <c r="F13">
-        <v>1.019247430168653</v>
+        <v>0.9457754489725505</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025712461300313</v>
+        <v>1.04107410051797</v>
       </c>
       <c r="J13">
-        <v>1.015181048460908</v>
+        <v>0.9662150661138297</v>
       </c>
       <c r="K13">
-        <v>1.015001302200554</v>
+        <v>0.965303414380474</v>
       </c>
       <c r="L13">
-        <v>1.014678380930146</v>
+        <v>0.966481133814766</v>
       </c>
       <c r="M13">
-        <v>1.022913772971066</v>
+        <v>0.9619730253099666</v>
       </c>
       <c r="N13">
-        <v>1.016622721992616</v>
+        <v>0.9675872023341284</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.008565658139098</v>
+        <v>0.9346462363578446</v>
       </c>
       <c r="D14">
-        <v>1.011496074307798</v>
+        <v>0.9502063243432264</v>
       </c>
       <c r="E14">
-        <v>1.011167099398026</v>
+        <v>0.9513822574335038</v>
       </c>
       <c r="F14">
-        <v>1.01948871333245</v>
+        <v>0.9471335585407271</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025713549415551</v>
+        <v>1.041193501988794</v>
       </c>
       <c r="J14">
-        <v>1.01533713048745</v>
+        <v>0.967055310937026</v>
       </c>
       <c r="K14">
-        <v>1.015160284893406</v>
+        <v>0.9661509037164551</v>
       </c>
       <c r="L14">
-        <v>1.014832597922559</v>
+        <v>0.9673014757502091</v>
       </c>
       <c r="M14">
-        <v>1.023121916158196</v>
+        <v>0.9631448023661762</v>
       </c>
       <c r="N14">
-        <v>1.016779025673539</v>
+        <v>0.9684286404013511</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.008700917778965</v>
+        <v>0.9354089794628948</v>
       </c>
       <c r="D15">
-        <v>1.011614521458901</v>
+        <v>0.9508352757102407</v>
       </c>
       <c r="E15">
-        <v>1.011282607305943</v>
+        <v>0.9519939902949184</v>
       </c>
       <c r="F15">
-        <v>1.019637329818308</v>
+        <v>0.9479659998665688</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025714159455582</v>
+        <v>1.041266315208144</v>
       </c>
       <c r="J15">
-        <v>1.015433282805669</v>
+        <v>0.9675704412056312</v>
       </c>
       <c r="K15">
-        <v>1.015258227852966</v>
+        <v>0.9666705205143028</v>
       </c>
       <c r="L15">
-        <v>1.014927605224451</v>
+        <v>0.9678044624258646</v>
       </c>
       <c r="M15">
-        <v>1.023250102098721</v>
+        <v>0.9638629340554125</v>
       </c>
       <c r="N15">
-        <v>1.016875314539079</v>
+        <v>0.9689445022140241</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.009488100956452</v>
+        <v>0.9397914709970503</v>
       </c>
       <c r="D16">
-        <v>1.012303972618587</v>
+        <v>0.9544529681512592</v>
       </c>
       <c r="E16">
-        <v>1.011954963358158</v>
+        <v>0.955513069682758</v>
       </c>
       <c r="F16">
-        <v>1.020501641925814</v>
+        <v>0.952746835144376</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025716787666102</v>
+        <v>1.041678744223574</v>
       </c>
       <c r="J16">
-        <v>1.015992703962863</v>
+        <v>0.9705305439104179</v>
       </c>
       <c r="K16">
-        <v>1.015828123868239</v>
+        <v>0.9696570780701893</v>
       </c>
       <c r="L16">
-        <v>1.015480424233957</v>
+        <v>0.9706956502969289</v>
       </c>
       <c r="M16">
-        <v>1.023995317133214</v>
+        <v>0.9679857270974277</v>
       </c>
       <c r="N16">
-        <v>1.017435530138483</v>
+        <v>0.9719088086041797</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.009981807097589</v>
+        <v>0.942492105280477</v>
       </c>
       <c r="D17">
-        <v>1.012736482108398</v>
+        <v>0.9566856337210142</v>
       </c>
       <c r="E17">
-        <v>1.012376760458358</v>
+        <v>0.9576852365718372</v>
       </c>
       <c r="F17">
-        <v>1.021043188546163</v>
+        <v>0.9556909955571901</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02571762325623</v>
+        <v>1.041927573631894</v>
       </c>
       <c r="J17">
-        <v>1.016343416059765</v>
+        <v>0.9723548566542605</v>
       </c>
       <c r="K17">
-        <v>1.016185452796266</v>
+        <v>0.9714982766047522</v>
       </c>
       <c r="L17">
-        <v>1.015827049723991</v>
+        <v>0.9724782336760621</v>
       </c>
       <c r="M17">
-        <v>1.024461995961223</v>
+        <v>0.9705232402212591</v>
       </c>
       <c r="N17">
-        <v>1.01778674028679</v>
+        <v>0.9737357120813704</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.010269752393111</v>
+        <v>0.9440505907902713</v>
       </c>
       <c r="D18">
-        <v>1.012988770944871</v>
+        <v>0.9579752151013813</v>
       </c>
       <c r="E18">
-        <v>1.012622804818871</v>
+        <v>0.9589399986185543</v>
       </c>
       <c r="F18">
-        <v>1.021358843625142</v>
+        <v>0.9573892814108619</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02571781743024</v>
+        <v>1.042069206278736</v>
       </c>
       <c r="J18">
-        <v>1.016547909848174</v>
+        <v>0.9734076754010087</v>
       </c>
       <c r="K18">
-        <v>1.016393822708802</v>
+        <v>0.9725610461105455</v>
       </c>
       <c r="L18">
-        <v>1.016029179529442</v>
+        <v>0.9735072313490191</v>
       </c>
       <c r="M18">
-        <v>1.024733923526996</v>
+        <v>0.9719864315251718</v>
       </c>
       <c r="N18">
-        <v>1.017991524479833</v>
+        <v>0.974790025951499</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.010367930143972</v>
+        <v>0.9445792157210174</v>
       </c>
       <c r="D19">
-        <v>1.013074797256448</v>
+        <v>0.9584128213636056</v>
       </c>
       <c r="E19">
-        <v>1.012706702578356</v>
+        <v>0.9593658099450975</v>
       </c>
       <c r="F19">
-        <v>1.02146643666258</v>
+        <v>0.9579651977710595</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025717833884442</v>
+        <v>1.042116909679359</v>
       </c>
       <c r="J19">
-        <v>1.016617625029817</v>
+        <v>0.9737647868523299</v>
       </c>
       <c r="K19">
-        <v>1.016464862368713</v>
+        <v>0.9729215674341266</v>
       </c>
       <c r="L19">
-        <v>1.016098091983625</v>
+        <v>0.9738563065303717</v>
       </c>
       <c r="M19">
-        <v>1.024826596683905</v>
+        <v>0.9724825321261128</v>
       </c>
       <c r="N19">
-        <v>1.018061338665031</v>
+        <v>0.9751476445420424</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.009928839729809</v>
+        <v>0.9422041002168001</v>
       </c>
       <c r="D20">
-        <v>1.012690076568687</v>
+        <v>0.9564474138574165</v>
       </c>
       <c r="E20">
-        <v>1.012331503854091</v>
+        <v>0.9574534587225899</v>
       </c>
       <c r="F20">
-        <v>1.020985108493243</v>
+        <v>0.9553770955012375</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025717563928957</v>
+        <v>1.041901240342126</v>
       </c>
       <c r="J20">
-        <v>1.016305795295009</v>
+        <v>0.9721603005477379</v>
       </c>
       <c r="K20">
-        <v>1.016147120386655</v>
+        <v>0.9713018982335879</v>
       </c>
       <c r="L20">
-        <v>1.015789865377881</v>
+        <v>0.9722881005941877</v>
       </c>
       <c r="M20">
-        <v>1.024411954548323</v>
+        <v>0.9702527503497902</v>
       </c>
       <c r="N20">
-        <v>1.017749066096232</v>
+        <v>0.9735408796828607</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.008501010476306</v>
+        <v>0.9342806572263204</v>
       </c>
       <c r="D21">
-        <v>1.011439464222446</v>
+        <v>0.9499049429220616</v>
       </c>
       <c r="E21">
-        <v>1.011111894320532</v>
+        <v>0.9510891346160697</v>
       </c>
       <c r="F21">
-        <v>1.019417671051431</v>
+        <v>0.9467345367209468</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025713241570915</v>
+        <v>1.041158498637226</v>
       </c>
       <c r="J21">
-        <v>1.015291171343441</v>
+        <v>0.9668084183457032</v>
       </c>
       <c r="K21">
-        <v>1.015113470857648</v>
+        <v>0.9659018729940736</v>
       </c>
       <c r="L21">
-        <v>1.01478718713164</v>
+        <v>0.9670604190901694</v>
       </c>
       <c r="M21">
-        <v>1.023060635254451</v>
+        <v>0.9628005468062759</v>
       </c>
       <c r="N21">
-        <v>1.016733001262273</v>
+        <v>0.9681813971942295</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.007603025568567</v>
+        <v>0.9291326410489471</v>
       </c>
       <c r="D22">
-        <v>1.010653258809998</v>
+        <v>0.9456659096424138</v>
       </c>
       <c r="E22">
-        <v>1.010345217750034</v>
+        <v>0.9469668017177086</v>
       </c>
       <c r="F22">
-        <v>1.018430153972539</v>
+        <v>0.9411132237075107</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025707886903917</v>
+        <v>1.040658725849572</v>
       </c>
       <c r="J22">
-        <v>1.014652585189599</v>
+        <v>0.9633322766057538</v>
       </c>
       <c r="K22">
-        <v>1.014463072933887</v>
+        <v>0.9623964548060261</v>
       </c>
       <c r="L22">
-        <v>1.014156290255036</v>
+        <v>0.9636675185968394</v>
       </c>
       <c r="M22">
-        <v>1.022208479498067</v>
+        <v>0.9579490267812676</v>
       </c>
       <c r="N22">
-        <v>1.016093508242847</v>
+        <v>0.9647003189342903</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.008079089481204</v>
+        <v>0.9318782534393185</v>
       </c>
       <c r="D23">
-        <v>1.011070032086333</v>
+        <v>0.947925576044388</v>
       </c>
       <c r="E23">
-        <v>1.010751634933945</v>
+        <v>0.9491641337422827</v>
       </c>
       <c r="F23">
-        <v>1.018953846956906</v>
+        <v>0.9441117945060039</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025710975258589</v>
+        <v>1.040926834438579</v>
       </c>
       <c r="J23">
-        <v>1.014991174323436</v>
+        <v>0.9651860848768451</v>
       </c>
       <c r="K23">
-        <v>1.014807909434654</v>
+        <v>0.9642656847910467</v>
       </c>
       <c r="L23">
-        <v>1.014490786167564</v>
+        <v>0.9654766859976316</v>
       </c>
       <c r="M23">
-        <v>1.022660463983661</v>
+        <v>0.9605373609836052</v>
       </c>
       <c r="N23">
-        <v>1.01643257821209</v>
+        <v>0.9665567598257616</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.009952773480905</v>
+        <v>0.9423342889050037</v>
       </c>
       <c r="D24">
-        <v>1.012711045193251</v>
+        <v>0.9565550942726555</v>
       </c>
       <c r="E24">
-        <v>1.012351953312211</v>
+        <v>0.957558226825949</v>
       </c>
       <c r="F24">
-        <v>1.021011353048413</v>
+        <v>0.9555189919476894</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025717591642484</v>
+        <v>1.041913150042143</v>
       </c>
       <c r="J24">
-        <v>1.016322794717463</v>
+        <v>0.9722482468099115</v>
       </c>
       <c r="K24">
-        <v>1.016164441319388</v>
+        <v>0.9713906675857041</v>
       </c>
       <c r="L24">
-        <v>1.015806667540792</v>
+        <v>0.9723740466832278</v>
       </c>
       <c r="M24">
-        <v>1.024434566968578</v>
+        <v>0.9703750251515734</v>
       </c>
       <c r="N24">
-        <v>1.017766089659816</v>
+        <v>0.9736289508388142</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.012126105971104</v>
+        <v>0.9538167885123515</v>
       </c>
       <c r="D25">
-        <v>1.014615882081278</v>
+        <v>0.9660754965907383</v>
       </c>
       <c r="E25">
-        <v>1.014209717816454</v>
+        <v>0.9668236336672891</v>
       </c>
       <c r="F25">
-        <v>1.023390360755825</v>
+        <v>0.9680175678035037</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025713764933832</v>
+        <v>1.042920664065068</v>
       </c>
       <c r="J25">
-        <v>1.017865302515839</v>
+        <v>0.9800050325090295</v>
       </c>
       <c r="K25">
-        <v>1.017736509969724</v>
+        <v>0.9792243122450011</v>
       </c>
       <c r="L25">
-        <v>1.017331681829682</v>
+        <v>0.9799597715979912</v>
       </c>
       <c r="M25">
-        <v>1.026482407626778</v>
+        <v>0.9811335260199813</v>
       </c>
       <c r="N25">
-        <v>1.019310787996194</v>
+        <v>0.9813967520633406</v>
       </c>
     </row>
   </sheetData>
